--- a/biology/Botanique/Peter_Lambert/Peter_Lambert.xlsx
+++ b/biology/Botanique/Peter_Lambert/Peter_Lambert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Peter Lambert, né le 1er juin 1859 et mort le 28 février 1939, est un rosiériste allemand de Trèves (Rhénanie-Palatinat).
 On lui doit un groupe d'hybrides de Rosa moschata,  nommés Rosa ×lambertiana, les « roses de Lambert », dont le premier fut en 1904 le type ‘Trier’, rosier buisson à floraison remontante. Celui-ci a été croisé par la suite avec des hybrides de thé.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'une famille d'horticulteurs, il suit son apprentissage dans la pépinière familiale Lambert &amp; Reiter, puis il apprend son métier à la Höhere Gärtner-Lehranstalt de Potsdam ; ensuite il poursuit son apprentissage en France et en Angleterre où il assimile différentes méthodes de la culture des roses. Il quitte Potsdam avec le grade de chef-jardinier royal (königlicher Obergärtner), et entreprend ses recherches en 1889 à l'entreprise paternelle de Trèves dans le domaine des roses. Sa première obtention chez Lambert &amp; Reiter en 1890, est baptisée en l'honneur de l'impératrice Auguste Victoria, épouse du Kaiser Guillaume, sous le nom de 'Kaiserin Auguste Viktoria'. L'année suivante, il ouvre sa propre pépinière à Trèves, où avec son frère Nikolaus (1861-1941), il aménage 60 hectares. À son apogée, elle emploie plus de soixante-dix jardiniers. 
 Peter Lambert se marie en 1900 avec Léonie Lamesch, fille de Jean-Baptiste Lamesch, l'un des rosiériste fameux du Luxembourg. Il lui a dédié pendant ses fiançailles une rose naine polyantha, 'Eugénie Lamesch' (1899), issue comme ses autres roses naines de croisements de polyanthas et de rosiers de Noisette. Cette obtention est suivie de 'Léonie Lamesch' et surtout de son premier grand succès international en 1904, 'Trier' (ce qui signifie Trèves), fameux remontant, à l'origine d'un groupe que l'on appelait Lambertiana. En 1914, il est à l'origine d'une centaine d'obtentions.
@@ -549,7 +563,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue de Trèves, la Peter-Lambert-Strasse, lui a été dédiée.
 </t>
